--- a/artfynd/A 42391-2021 artfynd.xlsx
+++ b/artfynd/A 42391-2021 artfynd.xlsx
@@ -2174,7 +2174,7 @@
         <v>130855767</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
